--- a/isomorphic/packages/isomorphic-servers/servers/express/test/file.xlsx
+++ b/isomorphic/packages/isomorphic-servers/servers/express/test/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CLi204/projects/ergo/Isomorphic/isomorphic/packages/isomorphic-servers/servers/express/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67C0452D-94B1-1E42-B242-4B2DA72DA761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0631B089-52D4-0F4A-BBD9-480187D22AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{435B6BFF-938C-CC41-92EE-C6C3BC7FD9E5}"/>
   </bookViews>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="212">
-  <si>
-    <t>英文缩写</t>
-  </si>
-  <si>
-    <t>英文名称</t>
-  </si>
-  <si>
-    <t>中文名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="208">
   <si>
     <t>C</t>
   </si>
@@ -489,9 +480,6 @@
   </si>
   <si>
     <t>乙纶</t>
-  </si>
-  <si>
-    <t>化学纤维长短丝代码</t>
   </si>
   <si>
     <t>f</t>
@@ -1031,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32ADD6EB-C8F5-BF41-995E-537FA3DBAF57}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,306 +1034,306 @@
   <sheetData>
     <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="23" x14ac:dyDescent="0.3">
@@ -1396,27 +1384,27 @@
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>96</v>
       </c>
@@ -1506,18 +1494,18 @@
         <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="23" x14ac:dyDescent="0.3">
@@ -1610,26 +1598,28 @@
     </row>
     <row r="53" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1684,30 +1674,30 @@
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
@@ -1772,27 +1762,27 @@
       <c r="A71" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="C71" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="23" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B73" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
         <v>186</v>
       </c>
@@ -1876,24 +1866,6 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="23" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="23" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
